--- a/biology/Médecine/Muscle_gracile/Muscle_gracile.xlsx
+++ b/biology/Médecine/Muscle_gracile/Muscle_gracile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile (ou muscle droit interne de la cuisse) est un muscle du membre inférieur situé dans la cuisse. Il appartient à la loge fémorale médiale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile est un long muscle mince et rubané qui unit l'os coxal au tibia. Il est situé en dedans des muscles adducteurs.
 C'est un muscle bi-articulaire : articulation coxale et articulation du genou.
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile se fixe sur le tiers interne du bord inférieur de la branche ischio-pubienne par un tendon de 3 à 4 cm de long.
 </t>
@@ -574,7 +590,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous forme de muscle aplati, il descend en longeant le bord interne de la cuisse, passe derrière le condyle médial du fémur pour se diriger en dehors vers la patte d'oie.
 </t>
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile s'insère sur la partie supérieure de la face médiale du tibia, en arrière du muscle sartorius et au-dessus du muscle semi-tendineux. Ces trois muscles forment les muscles de la patte d'oie.
 </t>
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile est innervé par le rameau antérieur du nerf obturateur.
 </t>
@@ -667,7 +689,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle gracile est vascularisé par trois rameaux de l'artère fémorale
 </t>
@@ -698,7 +722,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le muscle gracile est :
 adducteur et rotateur interne de la cuisse.
